--- a/Btech_Project/BTech_6th_Sem_Student_List.xlsx
+++ b/Btech_Project/BTech_6th_Sem_Student_List.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geeta\Btech_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B695E310-5553-4F01-AC4D-88190F2A73CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43852695-540E-44F2-A61D-FC0327318B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTech 6th Sem Attendance" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>S.No</t>
   </si>
@@ -227,9 +228,6 @@
     <t>Gagan</t>
   </si>
   <si>
-    <t>Govt Doc Mgmt System</t>
-  </si>
-  <si>
     <t>Movie recommendation system</t>
   </si>
   <si>
@@ -276,6 +274,36 @@
   </si>
   <si>
     <t>Chat App</t>
+  </si>
+  <si>
+    <t>Content Management System for Gyms and Library</t>
+  </si>
+  <si>
+    <t>Job Portal</t>
+  </si>
+  <si>
+    <t>Kartikay</t>
+  </si>
+  <si>
+    <t>Dr. Appointment System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Internship portal &amp; tracker - MERN</t>
+  </si>
+  <si>
+    <t>Shaksham Kundu</t>
+  </si>
+  <si>
+    <t>Expense tracker</t>
+  </si>
+  <si>
+    <t>Hospital Management System</t>
+  </si>
+  <si>
+    <t>Ecommerce Mkt Place.</t>
   </si>
 </sst>
 </file>
@@ -313,18 +341,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,26 +449,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -455,12 +477,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259E3A8-2371-44C6-BEBA-5395376E3076}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,13 +1407,13 @@
         <v>51</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1394,8 +1426,12 @@
       <c r="C2" s="2">
         <v>2301301059</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1411,29 +1447,25 @@
       <c r="C3" s="2">
         <v>2301301074</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2301301014</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>2301301002</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1441,19 +1473,19 @@
     </row>
     <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
-        <v>2301301008</v>
+        <v>2301301014</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1462,19 +1494,19 @@
     </row>
     <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
-        <v>2301301068</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>78</v>
+        <v>2301301008</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1483,16 +1515,20 @@
     </row>
     <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
-        <v>2301301069</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
+        <v>2301301068</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1500,15 +1536,15 @@
     </row>
     <row r="8" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
-        <v>2301301054</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>2301301069</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="15"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1517,18 +1553,16 @@
     </row>
     <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>2301301004</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>60</v>
-      </c>
+        <v>2301301054</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1536,16 +1570,18 @@
     </row>
     <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2">
-        <v>2301301042</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+        <v>2301301004</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1553,20 +1589,16 @@
     </row>
     <row r="11" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
-        <v>2301301020</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>62</v>
-      </c>
+        <v>2301301042</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1574,19 +1606,19 @@
     </row>
     <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2">
-        <v>2301301027</v>
+        <v>2301301020</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1595,19 +1627,19 @@
     </row>
     <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
-        <v>2301301053</v>
+        <v>2301301027</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>84</v>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1616,19 +1648,19 @@
     </row>
     <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>2301301097</v>
+        <v>2301301053</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>64</v>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1637,19 +1669,19 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>2301301023</v>
+        <v>2301301097</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1658,19 +1690,19 @@
     </row>
     <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2">
-        <v>2301301029</v>
+        <v>2301301023</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1679,17 +1711,19 @@
     </row>
     <row r="17" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2">
-        <v>2301301077</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>69</v>
+        <v>2301301029</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1698,16 +1732,18 @@
     </row>
     <row r="18" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>2301301046</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>2301301077</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1715,16 +1751,16 @@
     </row>
     <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>2301301058</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>2301301046</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1732,20 +1768,16 @@
     </row>
     <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>2301301045</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>2301301058</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1753,19 +1785,19 @@
     </row>
     <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2">
-        <v>2301301010</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>73</v>
+        <v>2301301045</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1774,16 +1806,20 @@
     </row>
     <row r="22" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2">
-        <v>2301301002</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>2301301010</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1791,16 +1827,16 @@
     </row>
     <row r="23" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2">
-        <v>2301301096</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v>2301301002</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1808,18 +1844,16 @@
     </row>
     <row r="24" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2">
-        <v>2301301085</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>74</v>
-      </c>
+        <v>2301301096</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1827,16 +1861,18 @@
     </row>
     <row r="25" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2">
-        <v>2401301135</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+        <v>2301301085</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1844,16 +1880,16 @@
     </row>
     <row r="26" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2">
-        <v>2401301172</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+        <v>2401301135</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1861,18 +1897,16 @@
     </row>
     <row r="27" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>2301301016</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>75</v>
-      </c>
+        <v>2401301172</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1880,16 +1914,18 @@
     </row>
     <row r="28" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
-        <v>2301301034</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+        <v>2301301016</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1897,16 +1933,16 @@
     </row>
     <row r="29" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
-        <v>2301301030</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+        <v>2301301034</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1914,18 +1950,16 @@
     </row>
     <row r="30" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
-        <v>2301301082</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>2301301030</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1933,116 +1967,197 @@
     </row>
     <row r="31" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2301301082</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2">
-        <v>2301301110</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2301301110</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33">
-        <v>2301301001</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="B33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="20">
+        <v>2301301026</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="20">
+        <v>2301301072</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2301301028</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="20">
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="20">
+        <v>2301301109</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
         <v>35</v>
       </c>
-      <c r="C34">
-        <v>2301301005</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B37" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2301301011</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
+      <c r="C38" s="20">
         <v>2301301006</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
@@ -2094,25 +2209,75 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
+  <mergeCells count="18">
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83C6394-8E0F-4263-A0CC-51C895E48078}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1">
+        <v>2301301001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>2301301005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Btech_Project/BTech_6th_Sem_Student_List.xlsx
+++ b/Btech_Project/BTech_6th_Sem_Student_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geeta\Btech_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43852695-540E-44F2-A61D-FC0327318B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D938D0-4030-4AAC-A3CB-BEBF7591E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
   <si>
     <t>S.No</t>
   </si>
@@ -222,18 +222,12 @@
     <t>Tejasvi sharma</t>
   </si>
   <si>
-    <t>Gaming E sport Community Hub - MERN</t>
-  </si>
-  <si>
     <t>Gagan</t>
   </si>
   <si>
     <t>Movie recommendation system</t>
   </si>
   <si>
-    <t>Sgar Pasawan</t>
-  </si>
-  <si>
     <t>Ashutosh Kr</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>Aryan</t>
   </si>
   <si>
-    <t>E-Commerce  - MERN</t>
-  </si>
-  <si>
-    <t>Community for Tech Discussion &amp; information Sharing</t>
-  </si>
-  <si>
     <t>2nd Intraction</t>
   </si>
   <si>
@@ -273,15 +261,6 @@
     <t>Humanshu</t>
   </si>
   <si>
-    <t>Chat App</t>
-  </si>
-  <si>
-    <t>Content Management System for Gyms and Library</t>
-  </si>
-  <si>
-    <t>Job Portal</t>
-  </si>
-  <si>
     <t>Kartikay</t>
   </si>
   <si>
@@ -304,13 +283,67 @@
   </si>
   <si>
     <t>Ecommerce Mkt Place.</t>
+  </si>
+  <si>
+    <t>Vaibhav Pratap</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>"NotesCraftr" - MERN</t>
+  </si>
+  <si>
+    <t>Tech Learning Platform through Games and Animation</t>
+  </si>
+  <si>
+    <t>20 - 21 Feb wireframe</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>20-21 Feb wireframe</t>
+  </si>
+  <si>
+    <t>Sagar Pasawan</t>
+  </si>
+  <si>
+    <t>20-21 Feb Wireframe</t>
+  </si>
+  <si>
+    <t>NextGen</t>
+  </si>
+  <si>
+    <t>E-Commerce  - MERN (No Mkt Place)</t>
+  </si>
+  <si>
+    <t>"Prine" 20-21 Feb wireframe design</t>
+  </si>
+  <si>
+    <t>Started Frontend development</t>
+  </si>
+  <si>
+    <t>Content Management System for Gyms and Library - Next and typescript and data modeling in MongoDB</t>
+  </si>
+  <si>
+    <t>Job Portal - "Career Karma" - MERN (90%) [Chatbot | Resume builder]</t>
+  </si>
+  <si>
+    <t>20-21 Feb Linkedin API for Resume builder</t>
+  </si>
+  <si>
+    <t>Gaming E sport Community Hub - MERN "GAMEYUVA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-21 Feb Wireframe design  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,14 +367,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +408,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -465,34 +504,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1371,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259E3A8-2371-44C6-BEBA-5395376E3076}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,8 +1417,8 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
@@ -1407,13 +1444,13 @@
         <v>51</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1426,13 +1463,15 @@
       <c r="C2" s="2">
         <v>2301301059</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1447,33 +1486,33 @@
       <c r="C3" s="2">
         <v>2301301074</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>2301301002</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
@@ -1487,14 +1526,16 @@
       <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -1508,14 +1549,16 @@
       <c r="E6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>58</v>
@@ -1523,20 +1566,22 @@
       <c r="C7" s="2">
         <v>2301301068</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
@@ -1544,16 +1589,16 @@
       <c r="C8" s="2">
         <v>2301301069</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -1561,16 +1606,16 @@
       <c r="C9" s="2">
         <v>2301301054</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
@@ -1578,18 +1623,20 @@
       <c r="C10" s="2">
         <v>2301301004</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
@@ -1597,79 +1644,79 @@
       <c r="C11" s="2">
         <v>2301301042</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>2301301020</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>2301301053</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2">
-        <v>2301301027</v>
+        <v>2301301020</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2">
-        <v>2301301053</v>
+        <v>2301301027</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1683,14 +1730,16 @@
       <c r="E15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
@@ -1702,19 +1751,21 @@
         <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2">
         <v>2301301029</v>
@@ -1723,16 +1774,18 @@
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1740,18 +1793,20 @@
       <c r="C18" s="2">
         <v>2301301077</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -1759,16 +1814,16 @@
       <c r="C19" s="2">
         <v>2301301046</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -1776,16 +1831,16 @@
       <c r="C20" s="2">
         <v>2301301058</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="2"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -1797,16 +1852,18 @@
         <v>54</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
@@ -1814,54 +1871,56 @@
       <c r="C22" s="2">
         <v>2301301010</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="2"/>
+      <c r="D22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2">
         <v>2301301002</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2">
         <v>2301301096</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
@@ -1869,18 +1928,22 @@
       <c r="C25" s="2">
         <v>2301301085</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="D25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>47</v>
@@ -1888,16 +1951,16 @@
       <c r="C26" s="2">
         <v>2401301135</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -1905,16 +1968,16 @@
       <c r="C27" s="2">
         <v>2401301172</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
@@ -1922,18 +1985,20 @@
       <c r="C28" s="2">
         <v>2301301016</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>39</v>
@@ -1941,16 +2006,16 @@
       <c r="C29" s="2">
         <v>2301301034</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>34</v>
@@ -1958,16 +2023,16 @@
       <c r="C30" s="2">
         <v>2301301030</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="2"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>14</v>
@@ -1975,108 +2040,116 @@
       <c r="C31" s="2">
         <v>2301301082</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2">
         <v>2301301110</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
-        <v>31</v>
-      </c>
-      <c r="B33" s="20" t="s">
+    <row r="33" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="2">
         <v>2301301026</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="E33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20">
-        <v>32</v>
-      </c>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="2">
         <v>2301301072</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20">
-        <v>33</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="2">
         <v>2301301028</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="20">
-        <v>34</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="2">
         <v>2301301109</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
-        <v>91</v>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2084,58 +2157,118 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="20">
-        <v>35</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="20">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2">
         <v>2301301011</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="20">
-        <v>36</v>
-      </c>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="2">
         <v>2301301006</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="16">
+        <v>2301301018</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2301301021</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="16">
+        <v>2301301005</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2301301102</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D43" s="7"/>
@@ -2214,7 +2347,19 @@
       <c r="E61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="28">
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F31:F32"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="D31:D32"/>
@@ -2229,10 +2374,8 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2257,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1">
         <v>2301301001</v>

--- a/Btech_Project/BTech_6th_Sem_Student_List.xlsx
+++ b/Btech_Project/BTech_6th_Sem_Student_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geeta\Btech_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D938D0-4030-4AAC-A3CB-BEBF7591E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EA253-23F2-4D4C-B388-0892B1787693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>S.No</t>
   </si>
@@ -255,9 +255,6 @@
     <t>4th Intraction</t>
   </si>
   <si>
-    <t xml:space="preserve">Centiment Anlysis </t>
-  </si>
-  <si>
     <t>Humanshu</t>
   </si>
   <si>
@@ -337,6 +334,15 @@
   </si>
   <si>
     <t xml:space="preserve">20-21 Feb Wireframe design  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapil </t>
+  </si>
+  <si>
+    <t>Divanshu</t>
+  </si>
+  <si>
+    <t>Quiz Portal</t>
   </si>
 </sst>
 </file>
@@ -413,18 +419,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -484,11 +490,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -505,11 +551,23 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -519,17 +577,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1406,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259E3A8-2371-44C6-BEBA-5395376E3076}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,14 +1512,14 @@
       <c r="C2" s="2">
         <v>2301301059</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>92</v>
+      <c r="E2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1481,30 +1530,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>2301301074</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="19"/>
+        <v>2301301045</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4">
-        <v>2301301002</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="2"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="20"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1512,7 +1553,7 @@
     </row>
     <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>45</v>
@@ -1527,7 +1568,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1535,7 +1576,7 @@
     </row>
     <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -1550,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1558,7 +1599,7 @@
     </row>
     <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>58</v>
@@ -1566,22 +1607,22 @@
       <c r="C7" s="2">
         <v>2301301068</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
@@ -1589,16 +1630,16 @@
       <c r="C8" s="2">
         <v>2301301069</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -1606,16 +1647,16 @@
       <c r="C9" s="2">
         <v>2301301054</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
@@ -1623,12 +1664,12 @@
       <c r="C10" s="2">
         <v>2301301004</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>93</v>
+      <c r="F10" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1636,7 +1677,7 @@
     </row>
     <row r="11" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
@@ -1644,16 +1685,16 @@
       <c r="C11" s="2">
         <v>2301301042</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1661,8 +1702,8 @@
       <c r="C12" s="2">
         <v>2301301053</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="20"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1670,7 +1711,7 @@
     </row>
     <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>61</v>
@@ -1685,7 +1726,7 @@
         <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1693,7 +1734,7 @@
     </row>
     <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
@@ -1708,7 +1749,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1716,7 +1757,7 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
@@ -1731,7 +1772,7 @@
         <v>64</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1739,7 +1780,7 @@
     </row>
     <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>65</v>
@@ -1751,10 +1792,10 @@
         <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1762,7 +1803,7 @@
     </row>
     <row r="17" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>66</v>
@@ -1774,18 +1815,18 @@
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="G17" s="13"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1793,12 +1834,12 @@
       <c r="C18" s="2">
         <v>2301301077</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>93</v>
+      <c r="F18" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1806,7 +1847,7 @@
     </row>
     <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>20</v>
@@ -1814,16 +1855,16 @@
       <c r="C19" s="2">
         <v>2301301046</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -1831,32 +1872,20 @@
       <c r="C20" s="2">
         <v>2301301058</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="20"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2301301045</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1871,16 +1900,16 @@
       <c r="C22" s="2">
         <v>2301301010</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="F22" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="13"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
@@ -1889,15 +1918,15 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2">
         <v>2301301002</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
@@ -1911,10 +1940,10 @@
       <c r="C24" s="2">
         <v>2301301096</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
@@ -1928,14 +1957,14 @@
       <c r="C25" s="2">
         <v>2301301085</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>95</v>
+      <c r="F25" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1951,9 +1980,9 @@
       <c r="C26" s="2">
         <v>2401301135</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1968,8 +1997,8 @@
       <c r="C27" s="2">
         <v>2401301172</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1985,12 +2014,12 @@
       <c r="C28" s="2">
         <v>2301301016</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>93</v>
+      <c r="F28" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2006,9 +2035,9 @@
       <c r="C29" s="2">
         <v>2301301034</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="19"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2023,8 +2052,8 @@
       <c r="C30" s="2">
         <v>2301301030</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2040,12 +2069,12 @@
       <c r="C31" s="2">
         <v>2301301082</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>93</v>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2061,8 +2090,8 @@
       <c r="C32" s="2">
         <v>2301301110</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
       <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2081,11 +2110,11 @@
       <c r="D33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="11" t="s">
         <v>99</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2105,10 +2134,10 @@
         <v>54</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>102</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2128,10 +2157,10 @@
         <v>54</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -2147,9 +2176,9 @@
       <c r="C36" s="2">
         <v>2301301109</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>84</v>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2161,13 +2190,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2">
-        <v>2301301011</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+        <v>2301301074</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -2175,56 +2204,58 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>2301301006</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>2301301011</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>39</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="16">
-        <v>2301301018</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2301301006</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>40</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="16">
-        <v>2301301021</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2301301018</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2232,16 +2263,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="16">
-        <v>2301301005</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="17"/>
+      <c r="C41" s="2">
+        <v>2301301021</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2249,46 +2280,107 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>42</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="16">
-        <v>2301301102</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2301301005</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2301301102</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2301301022</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2301301080</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2301301090</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2301301015</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D48" s="7"/>
@@ -2346,36 +2438,48 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="32">
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="F25:F27"/>
     <mergeCell ref="F28:F30"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="E25:E27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2400,7 +2504,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1">
         <v>2301301001</v>

--- a/Btech_Project/BTech_6th_Sem_Student_List.xlsx
+++ b/Btech_Project/BTech_6th_Sem_Student_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Geeta\Btech_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6EA253-23F2-4D4C-B388-0892B1787693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA9B0F-76B0-4CC9-BE47-78449B0B42A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>S.No</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Project Title</t>
   </si>
   <si>
-    <t>1st Intraction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kartik </t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Gagan</t>
   </si>
   <si>
-    <t>Movie recommendation system</t>
-  </si>
-  <si>
     <t>Ashutosh Kr</t>
   </si>
   <si>
@@ -237,33 +231,18 @@
     <t>Market Place for Dry Cleaners and Dress makers - Next /Flutter</t>
   </si>
   <si>
-    <t>Event Management System - MERN</t>
-  </si>
-  <si>
     <t>Ecommerce Market Place like flipkart  - MERN</t>
   </si>
   <si>
     <t>Aryan</t>
   </si>
   <si>
-    <t>2nd Intraction</t>
-  </si>
-  <si>
-    <t>3rd Intraction</t>
-  </si>
-  <si>
-    <t>4th Intraction</t>
-  </si>
-  <si>
     <t>Humanshu</t>
   </si>
   <si>
     <t>Kartikay</t>
   </si>
   <si>
-    <t>Dr. Appointment System</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -343,6 +322,50 @@
   </si>
   <si>
     <t>Quiz Portal</t>
+  </si>
+  <si>
+    <t>Wireframe completed</t>
+  </si>
+  <si>
+    <t>27-28 Feb</t>
+  </si>
+  <si>
+    <t>6-7 Mar</t>
+  </si>
+  <si>
+    <t>20-21 Mar</t>
+  </si>
+  <si>
+    <t>27-28 Mar</t>
+  </si>
+  <si>
+    <t>Sentimental Analysis</t>
+  </si>
+  <si>
+    <t>20-21 Feb</t>
+  </si>
+  <si>
+    <t>Created wireframe of customer only</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event Management System - MERN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Types: Customer, Vendor, Admin</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie recommendation system / Investor and Startup meeting </t>
   </si>
 </sst>
 </file>
@@ -419,18 +442,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -530,11 +553,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,7 +612,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -567,7 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -577,8 +636,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1455,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259E3A8-2371-44C6-BEBA-5395376E3076}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,9 +1549,10 @@
     <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1490,68 +1569,76 @@
         <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>2301301059</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>91</v>
+      <c r="D2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="I2" s="30"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="31">
         <v>2301301045</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="20"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="30"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1562,19 +1649,20 @@
         <v>2301301014</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="30"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1585,42 +1673,44 @@
         <v>2301301008</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="30"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
         <v>2301301068</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="D7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="28"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="30"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1630,14 +1720,15 @@
       <c r="C8" s="2">
         <v>2301301069</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="30"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1647,14 +1738,15 @@
       <c r="C9" s="2">
         <v>2301301054</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="30"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1664,35 +1756,37 @@
       <c r="C10" s="2">
         <v>2301301004</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>92</v>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="30"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2">
         <v>2301301042</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="30"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1702,37 +1796,39 @@
       <c r="C12" s="2">
         <v>2301301053</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="30"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>2301301020</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="30"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1743,19 +1839,20 @@
         <v>2301301027</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="30"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1766,65 +1863,68 @@
         <v>2301301097</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="30"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2">
         <v>2301301023</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="30"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2">
         <v>2301301029</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="30"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1834,18 +1934,19 @@
       <c r="C18" s="2">
         <v>2301301077</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>92</v>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="30"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1855,14 +1956,15 @@
       <c r="C19" s="2">
         <v>2301301046</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="30"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1872,14 +1974,15 @@
       <c r="C20" s="2">
         <v>2301301058</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="30"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1888,9 +1991,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="30"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -1900,54 +2004,57 @@
       <c r="C22" s="2">
         <v>2301301010</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="13"/>
+      <c r="D22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="30"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2">
         <v>2301301002</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="30"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>2301301096</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="30"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1957,20 +2064,21 @@
       <c r="C25" s="2">
         <v>2301301085</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>94</v>
+      <c r="D25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="30"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -1980,14 +2088,15 @@
       <c r="C26" s="2">
         <v>2401301135</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="25"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="30"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1997,14 +2106,15 @@
       <c r="C27" s="2">
         <v>2401301172</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="30"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -2014,18 +2124,19 @@
       <c r="C28" s="2">
         <v>2301301016</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>92</v>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="30"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -2035,14 +2146,15 @@
       <c r="C29" s="2">
         <v>2301301034</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="25"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="30"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2052,14 +2164,15 @@
       <c r="C30" s="2">
         <v>2301301030</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="30"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -2069,35 +2182,37 @@
       <c r="C31" s="2">
         <v>2301301082</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>92</v>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="30"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2">
         <v>2301301110</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="20"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="30"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -2108,19 +2223,20 @@
         <v>2301301026</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="30"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -2131,19 +2247,20 @@
         <v>2301301072</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="30"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -2154,19 +2271,20 @@
         <v>2301301028</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="30"/>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -2176,50 +2294,53 @@
       <c r="C36" s="2">
         <v>2301301109</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
-        <v>83</v>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="30"/>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2">
         <v>2301301074</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="30"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2">
         <v>2301301011</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="30"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2230,19 +2351,20 @@
         <v>2301301006</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="30"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2252,16 +2374,17 @@
       <c r="C40" s="2">
         <v>2301301018</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>106</v>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="30"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2271,31 +2394,33 @@
       <c r="C41" s="2">
         <v>2301301021</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="30"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2">
         <v>2301301005</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="30"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2305,37 +2430,39 @@
       <c r="C43" s="2">
         <v>2301301102</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>90</v>
+      <c r="D43" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="30"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3">
         <v>2301301022</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="30"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2346,43 +2473,52 @@
         <v>2301301080</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="14" t="s">
-        <v>60</v>
+      <c r="E45" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2">
         <v>2301301090</v>
       </c>
       <c r="D46" s="6"/>
-      <c r="E46" s="14"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2">
         <v>2301301015</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="14"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
     </row>
@@ -2447,23 +2583,10 @@
       <c r="E63" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
+  <mergeCells count="35">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="E45:E47"/>
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="F43:F44"/>
@@ -2480,6 +2603,22 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2504,7 +2643,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1">
         <v>2301301001</v>
